--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Prn-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Prn-Rpsa.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6614063333333333</v>
+        <v>0.44393</v>
       </c>
       <c r="H2">
-        <v>1.984219</v>
+        <v>1.33179</v>
       </c>
       <c r="I2">
-        <v>0.6318675772113321</v>
+        <v>0.5353249597237094</v>
       </c>
       <c r="J2">
-        <v>0.6318675772113321</v>
+        <v>0.5353249597237095</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>108.2550863333333</v>
+        <v>127.5808283333333</v>
       </c>
       <c r="N2">
-        <v>324.765259</v>
+        <v>382.742485</v>
       </c>
       <c r="O2">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="P2">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="Q2">
-        <v>71.60059971641344</v>
+        <v>56.63695712201666</v>
       </c>
       <c r="R2">
-        <v>644.405397447721</v>
+        <v>509.73261409815</v>
       </c>
       <c r="S2">
-        <v>0.0794305020410952</v>
+        <v>0.08202711942133677</v>
       </c>
       <c r="T2">
-        <v>0.0794305020410952</v>
+        <v>0.08202711942133679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6614063333333333</v>
+        <v>0.44393</v>
       </c>
       <c r="H3">
-        <v>1.984219</v>
+        <v>1.33179</v>
       </c>
       <c r="I3">
-        <v>0.6318675772113321</v>
+        <v>0.5353249597237094</v>
       </c>
       <c r="J3">
-        <v>0.6318675772113321</v>
+        <v>0.5353249597237095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>853.0869909999999</v>
       </c>
       <c r="O3">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="P3">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="Q3">
-        <v>188.0790462438921</v>
+        <v>126.2369693048767</v>
       </c>
       <c r="R3">
-        <v>1692.711416195029</v>
+        <v>1136.13272374389</v>
       </c>
       <c r="S3">
-        <v>0.208646479578831</v>
+        <v>0.1828285890121287</v>
       </c>
       <c r="T3">
-        <v>0.208646479578831</v>
+        <v>0.1828285890121288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6614063333333333</v>
+        <v>0.44393</v>
       </c>
       <c r="H4">
-        <v>1.984219</v>
+        <v>1.33179</v>
       </c>
       <c r="I4">
-        <v>0.6318675772113321</v>
+        <v>0.5353249597237094</v>
       </c>
       <c r="J4">
-        <v>0.6318675772113321</v>
+        <v>0.5353249597237095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>178.4792176666666</v>
+        <v>155.9545746666667</v>
       </c>
       <c r="N4">
-        <v>535.437653</v>
+        <v>467.863724</v>
       </c>
       <c r="O4">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="P4">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="Q4">
-        <v>118.0472849331119</v>
+        <v>69.23291433177333</v>
       </c>
       <c r="R4">
-        <v>1062.425564398007</v>
+        <v>623.0962289859601</v>
       </c>
       <c r="S4">
-        <v>0.1309563766778876</v>
+        <v>0.1002698029759078</v>
       </c>
       <c r="T4">
-        <v>0.1309563766778876</v>
+        <v>0.1002698029759078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6614063333333333</v>
+        <v>0.44393</v>
       </c>
       <c r="H5">
-        <v>1.984219</v>
+        <v>1.33179</v>
       </c>
       <c r="I5">
-        <v>0.6318675772113321</v>
+        <v>0.5353249597237094</v>
       </c>
       <c r="J5">
-        <v>0.6318675772113321</v>
+        <v>0.5353249597237095</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>125.0343833333333</v>
+        <v>132.7811556666666</v>
       </c>
       <c r="N5">
-        <v>375.10315</v>
+        <v>398.343467</v>
       </c>
       <c r="O5">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806953</v>
       </c>
       <c r="P5">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806954</v>
       </c>
       <c r="Q5">
-        <v>82.69853302109445</v>
+        <v>58.94553843510332</v>
       </c>
       <c r="R5">
-        <v>744.2867971898501</v>
+        <v>530.50984591593</v>
       </c>
       <c r="S5">
-        <v>0.09174205274738526</v>
+        <v>0.08537063017270821</v>
       </c>
       <c r="T5">
-        <v>0.09174205274738527</v>
+        <v>0.08537063017270824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6614063333333333</v>
+        <v>0.44393</v>
       </c>
       <c r="H6">
-        <v>1.984219</v>
+        <v>1.33179</v>
       </c>
       <c r="I6">
-        <v>0.6318675772113321</v>
+        <v>0.5353249597237094</v>
       </c>
       <c r="J6">
-        <v>0.6318675772113321</v>
+        <v>0.5353249597237095</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>165.0353776666667</v>
+        <v>131.9384486666667</v>
       </c>
       <c r="N6">
-        <v>495.106133</v>
+        <v>395.815346</v>
       </c>
       <c r="O6">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="P6">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="Q6">
-        <v>109.1554440127919</v>
+        <v>58.57143551659333</v>
       </c>
       <c r="R6">
-        <v>982.398996115127</v>
+        <v>527.14291964934</v>
       </c>
       <c r="S6">
-        <v>0.1210921661661331</v>
+        <v>0.08482881814162788</v>
       </c>
       <c r="T6">
-        <v>0.1210921661661331</v>
+        <v>0.0848288181416279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3853420000000001</v>
+        <v>0.385342</v>
       </c>
       <c r="H7">
         <v>1.156026</v>
       </c>
       <c r="I7">
-        <v>0.3681324227886678</v>
+        <v>0.4646750402762905</v>
       </c>
       <c r="J7">
-        <v>0.3681324227886678</v>
+        <v>0.4646750402762905</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>108.2550863333333</v>
+        <v>127.5808283333333</v>
       </c>
       <c r="N7">
-        <v>324.765259</v>
+        <v>382.742485</v>
       </c>
       <c r="O7">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="P7">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="Q7">
-        <v>41.71523147785934</v>
+        <v>49.16225155162333</v>
       </c>
       <c r="R7">
-        <v>375.4370833007341</v>
+        <v>442.46026396461</v>
       </c>
       <c r="S7">
-        <v>0.04627701153580282</v>
+        <v>0.07120152783559741</v>
       </c>
       <c r="T7">
-        <v>0.04627701153580282</v>
+        <v>0.07120152783559741</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3853420000000001</v>
+        <v>0.385342</v>
       </c>
       <c r="H8">
         <v>1.156026</v>
       </c>
       <c r="I8">
-        <v>0.3681324227886678</v>
+        <v>0.4646750402762905</v>
       </c>
       <c r="J8">
-        <v>0.3681324227886678</v>
+        <v>0.4646750402762905</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>853.0869909999999</v>
       </c>
       <c r="O8">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="P8">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="Q8">
         <v>109.5767490953073</v>
       </c>
       <c r="R8">
-        <v>986.1907418577661</v>
+        <v>986.1907418577658</v>
       </c>
       <c r="S8">
-        <v>0.1215595431762309</v>
+        <v>0.1586996466720242</v>
       </c>
       <c r="T8">
-        <v>0.1215595431762309</v>
+        <v>0.1586996466720242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3853420000000001</v>
+        <v>0.385342</v>
       </c>
       <c r="H9">
         <v>1.156026</v>
       </c>
       <c r="I9">
-        <v>0.3681324227886678</v>
+        <v>0.4646750402762905</v>
       </c>
       <c r="J9">
-        <v>0.3681324227886678</v>
+        <v>0.4646750402762905</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>178.4792176666666</v>
+        <v>155.9545746666667</v>
       </c>
       <c r="N9">
-        <v>535.437653</v>
+        <v>467.863724</v>
       </c>
       <c r="O9">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="P9">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="Q9">
-        <v>68.77553869410868</v>
+        <v>60.09584771120267</v>
       </c>
       <c r="R9">
-        <v>618.9798482469781</v>
+        <v>540.8626294008241</v>
       </c>
       <c r="S9">
-        <v>0.07629650573118778</v>
+        <v>0.08703661932814244</v>
       </c>
       <c r="T9">
-        <v>0.07629650573118779</v>
+        <v>0.08703661932814245</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3853420000000001</v>
+        <v>0.385342</v>
       </c>
       <c r="H10">
         <v>1.156026</v>
       </c>
       <c r="I10">
-        <v>0.3681324227886678</v>
+        <v>0.4646750402762905</v>
       </c>
       <c r="J10">
-        <v>0.3681324227886678</v>
+        <v>0.4646750402762905</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>125.0343833333333</v>
+        <v>132.7811556666666</v>
       </c>
       <c r="N10">
-        <v>375.10315</v>
+        <v>398.343467</v>
       </c>
       <c r="O10">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806953</v>
       </c>
       <c r="P10">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806954</v>
       </c>
       <c r="Q10">
-        <v>48.18099934243335</v>
+        <v>51.16615608690466</v>
       </c>
       <c r="R10">
-        <v>433.6289940819001</v>
+        <v>460.495404782142</v>
       </c>
       <c r="S10">
-        <v>0.0534498451377337</v>
+        <v>0.07410377620798714</v>
       </c>
       <c r="T10">
-        <v>0.05344984513773371</v>
+        <v>0.07410377620798715</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3853420000000001</v>
+        <v>0.385342</v>
       </c>
       <c r="H11">
         <v>1.156026</v>
       </c>
       <c r="I11">
-        <v>0.3681324227886678</v>
+        <v>0.4646750402762905</v>
       </c>
       <c r="J11">
-        <v>0.3681324227886678</v>
+        <v>0.4646750402762905</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>165.0353776666667</v>
+        <v>131.9384486666667</v>
       </c>
       <c r="N11">
-        <v>495.106133</v>
+        <v>395.815346</v>
       </c>
       <c r="O11">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="P11">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="Q11">
-        <v>63.59506250082868</v>
+        <v>50.84142568611067</v>
       </c>
       <c r="R11">
-        <v>572.3555625074581</v>
+        <v>457.572831174996</v>
       </c>
       <c r="S11">
-        <v>0.07054951720771256</v>
+        <v>0.0736334702325393</v>
       </c>
       <c r="T11">
-        <v>0.07054951720771256</v>
+        <v>0.07363347023253931</v>
       </c>
     </row>
   </sheetData>
